--- a/Term_Project/데이터베이스 텀프로젝트 설계_2015111728_이현진.xlsx
+++ b/Term_Project/데이터베이스 텀프로젝트 설계_2015111728_이현진.xlsx
@@ -19,336 +19,342 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
+  <x:si>
+    <x:t>행정직원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름  [varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리부서[varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>층수            [int]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입사기간[varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름    [varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외박신청번호[varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>민원번호[varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직책  [varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>처리상태[varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태  [varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사유   [varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>민원종류[varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학과  [varchar(40)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무  [varchar(40)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사생학번   [char(10)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일자     [datetime]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일[varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기간  [varchar(40)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출입통제, 순찰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키(경비원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키(기타시설)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>민원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가온</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수한무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방배정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>호실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>누리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상벌점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미리내</x:t>
+  </x:si>
+  <x:si>
+    <x:t>야간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이현진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미처리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍길동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경비원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팀장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6개월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외박</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>완료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식당</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호        [char(10)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경비원이름     [varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인일시      [datetime]</x:t>
+  </x:si>
   <x:si>
     <x:t>부여일         [datetime]</x:t>
   </x:si>
   <x:si>
-    <x:t>신청번호[varchar(20)]</x:t>
+    <x:t>시설번호       [char(10)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학번        [char(10)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학년                            [int]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무시간            [varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무시간            [varchar(40)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입사기간           [varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무시간           [varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호                  [char(10)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름             [varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체온              [decimal(5,1)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신청일               [date]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시설관리원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월요일 오전, 금요일 오후</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신청생번호[char(10)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>호실번호[char(10)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020/11/25-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화요일 오전, 수요일 오후</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사생학번[char(10)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직책[varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020/11/24, 불량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키(기타시설, 호실)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태[varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시설번호[char(10)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시설이용자[char(10)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020/11/23, 수료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체온체크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외박신청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키(사생)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평일 주간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외박승인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3-101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키(민원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>민원처리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>룸메이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생명과학과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타시설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키(호실)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>민원신청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키(외박)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-101</x:t>
   </x:si>
   <x:si>
     <x:t>사생학번           [char(10)]</x:t>
   </x:si>
   <x:si>
-    <x:t>학년                            [int]</x:t>
+    <x:t>신청일             [datetime]</x:t>
   </x:si>
   <x:si>
     <x:t>승인자          [varchar(20)]</x:t>
   </x:si>
   <x:si>
+    <x:t>성별         [varchar(20)]</x:t>
+  </x:si>
+  <x:si>
     <x:t>안전교육          [varchar(40)]</x:t>
   </x:si>
   <x:si>
-    <x:t>신청일             [datetime]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방배정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리부서[varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름  [varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>처리상태[varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입사기간[varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사유   [varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사생학번   [char(10)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태  [varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직책  [varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름    [varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일[varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>민원종류[varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외박신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별         [varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>민원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체온              [decimal(5,1)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입사기간           [varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호                  [char(10)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무시간            [varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무시간           [varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무시간            [varchar(40)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래키(경비원)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출입통제, 순찰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>호실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>누리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미리내</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이현진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수한무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상벌점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>야간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미처리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가온</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식당</x:t>
-  </x:si>
-  <x:si>
-    <x:t>완료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍길동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경비원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6개월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팀장</x:t>
+    <x:t>상벌점부여자     [varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>민원처리자      [varchar(20)]</x:t>
   </x:si>
   <x:si>
     <x:t>생활점검          [varchar(40)]</x:t>
   </x:si>
   <x:si>
-    <x:t>외래키(기타시설, 호실)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화요일 오전, 수요일 오후</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직책[varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월요일 오전, 금요일 오후</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사생학번[char(10)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시설번호[char(10)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>호실번호[char(10)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태[varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시설이용자[char(10)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벌점       [int]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>민원처리자      [varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상벌점부여자     [varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>민원처리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행정관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시설관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체온체크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생명과학과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래키(사생)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>룸메이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평일 주간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래키(호실)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타시설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래키(기타시설)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래키(행정관리자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시설번호       [char(10)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학번        [char(10)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호        [char(10)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신청생번호[char(10)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인일시      [datetime]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경비원이름     [varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020/11/24, 불량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020/11/25-27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기간  [datetime]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래키(외박)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3-101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>민원번호[varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>층수            [int]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일자     [datetime]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020/11/23, 수료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외박</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외박승인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>민원신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외박신청번호[varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래키(경비원,시설관리자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학과  [varchar(40)]</x:t>
-  </x:si>
-  <x:si>
     <x:t>처리자          [varchar(20)]</x:t>
   </x:si>
   <x:si>
-    <x:t>외래키(민원)</x:t>
-  </x:si>
-  <x:si>
     <x:t>담당자          [varchar(20)]</x:t>
   </x:si>
   <x:si>
-    <x:t>이름             [varchar(20)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무  [varchar(40)]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상점            [int]</x:t>
+    <x:t>외래키(행정직원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배정자                 [varchar(20)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시설번호         [char(10)]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상벌점            [int]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>처리일                    [date]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키(경비원,시설관리원)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -395,7 +401,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="4">
+  <x:borders count="5">
     <x:border>
       <x:left>
         <x:color auto="1"/>
@@ -443,6 +449,20 @@
         <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
         <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
@@ -458,7 +478,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="9">
+  <x:cellXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -471,19 +491,31 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
   </x:cellXfs>
@@ -786,10 +818,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B2:N45"/>
+  <x:dimension ref="B2:M45"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I41" activeCellId="0" sqref="I41:I41"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G27" activeCellId="0" sqref="G27:G27"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
@@ -798,7 +830,7 @@
     <x:col min="2" max="2" width="12.16796875" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="15.1875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="22.41796875" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="13.66796875" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="21.21484375" style="1" bestFit="1" customWidth="1"/>
     <x:col min="6" max="6" width="19.75" style="1" customWidth="1"/>
     <x:col min="7" max="7" width="11.25" style="1" customWidth="1"/>
     <x:col min="8" max="8" width="8.66015625" style="1"/>
@@ -812,50 +844,50 @@
   <x:sheetData>
     <x:row r="2" spans="2:12">
       <x:c r="B2" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C2" s="5"/>
       <x:c r="D2" s="5"/>
       <x:c r="E2" s="5"/>
       <x:c r="F2" s="5"/>
       <x:c r="G2" s="5"/>
-      <x:c r="I2" s="4" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="J2" s="4"/>
-      <x:c r="K2" s="4"/>
-      <x:c r="L2" s="4"/>
+      <x:c r="I2" s="6" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="J2" s="6"/>
+      <x:c r="K2" s="6"/>
+      <x:c r="L2" s="6"/>
     </x:row>
     <x:row r="3" spans="2:12" ht="32.75">
       <x:c r="B3" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E3" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F3" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G3" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J3" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="K3" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:12">
@@ -863,77 +895,77 @@
         <x:v>2015111728</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D4" s="3">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F4" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G4" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J4" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="K4" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="9:12">
       <x:c r="I5" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="K5" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="L5" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:12">
-      <x:c r="B7" s="4" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C7" s="4"/>
-      <x:c r="I7" s="4" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="J7" s="4"/>
-      <x:c r="K7" s="4"/>
-      <x:c r="L7" s="4"/>
+      <x:c r="B7" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C7" s="6"/>
+      <x:c r="I7" s="6" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="J7" s="6"/>
+      <x:c r="K7" s="6"/>
+      <x:c r="L7" s="6"/>
     </x:row>
     <x:row r="8" spans="2:12" ht="32.75">
       <x:c r="B8" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I8" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J8" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K8" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="L8" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:12">
@@ -941,13 +973,13 @@
         <x:v>4202</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I9" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="J9" s="2" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="I9" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="J9" s="2" t="s">
-        <x:v>53</x:v>
       </x:c>
       <x:c r="K9" s="2">
         <x:v>101</x:v>
@@ -957,160 +989,155 @@
       </x:c>
     </x:row>
     <x:row r="11" spans="2:12">
-      <x:c r="B11" s="4" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C11" s="4"/>
-      <x:c r="D11" s="4"/>
-      <x:c r="I11" s="4" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="J11" s="4"/>
-      <x:c r="K11" s="4"/>
-      <x:c r="L11" s="4"/>
+      <x:c r="B11" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C11" s="6"/>
+      <x:c r="D11" s="6"/>
+      <x:c r="I11" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J11" s="6"/>
+      <x:c r="K11" s="6"/>
+      <x:c r="L11" s="6"/>
     </x:row>
     <x:row r="12" spans="2:12" ht="32.75">
       <x:c r="B12" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I12" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J12" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="K12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L12" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:12">
       <x:c r="B13" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I13" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J13" s="2">
         <x:v>731101</x:v>
       </x:c>
       <x:c r="K13" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="L13" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="9:12">
       <x:c r="I14" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J14" s="2">
         <x:v>710101</x:v>
       </x:c>
       <x:c r="K14" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L14" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="2:14">
-      <x:c r="B16" s="4" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C16" s="4"/>
-      <x:c r="D16" s="4"/>
-      <x:c r="E16" s="4"/>
-      <x:c r="F16" s="4"/>
-      <x:c r="I16" s="4" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="J16" s="4"/>
-      <x:c r="K16" s="4"/>
-      <x:c r="L16" s="4"/>
-      <x:c r="M16" s="4"/>
-      <x:c r="N16" s="4"/>
-    </x:row>
-    <x:row r="17" spans="2:14">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:13">
+      <x:c r="B16" s="6" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C16" s="6"/>
+      <x:c r="D16" s="6"/>
+      <x:c r="E16" s="6"/>
+      <x:c r="F16" s="6"/>
+      <x:c r="I16" s="5" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J16" s="5"/>
+      <x:c r="K16" s="5"/>
+      <x:c r="L16" s="5"/>
+      <x:c r="M16" s="5"/>
+    </x:row>
+    <x:row r="17" spans="2:13">
       <x:c r="B17" s="2"/>
       <x:c r="C17" s="2"/>
       <x:c r="D17" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E17" s="2"/>
       <x:c r="F17" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I17" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="J17" s="2"/>
       <x:c r="K17" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="L17" s="2"/>
       <x:c r="M17" s="2"/>
-      <x:c r="N17" s="2"/>
-    </x:row>
-    <x:row r="18" spans="2:14" ht="32.75">
+    </x:row>
+    <x:row r="18" spans="2:13" ht="32.75">
       <x:c r="B18" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I18" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="J18" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K18" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L18" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
       <x:c r="M18" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N18" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="2:14">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="2:13">
       <x:c r="B19" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E19" s="2" t="s">
         <x:v>47</x:v>
@@ -1122,33 +1149,30 @@
         <x:v>2015111729</x:v>
       </x:c>
       <x:c r="J19" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K19" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L19" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="M19" s="6">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="M19" s="4">
         <x:v>44159.751354166663</x:v>
       </x:c>
-      <x:c r="N19" s="2">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="2:14">
+    </x:row>
+    <x:row r="20" spans="2:13">
       <x:c r="B20" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E20" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F20" s="2">
         <x:v>101</x:v>
@@ -1160,97 +1184,86 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K20" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L20" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="M20" s="6">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="M20" s="4">
         <x:v>44159.959687499999</x:v>
       </x:c>
-      <x:c r="N20" s="2">
-        <x:v>5</x:v>
-      </x:c>
     </x:row>
     <x:row r="22" spans="2:12">
-      <x:c r="B22" s="4" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C22" s="4"/>
-      <x:c r="D22" s="4"/>
-      <x:c r="E22" s="4"/>
-      <x:c r="F22" s="4"/>
-      <x:c r="I22" s="4" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="J22" s="4"/>
-      <x:c r="K22" s="4"/>
-      <x:c r="L22" s="4"/>
+      <x:c r="B22" s="9" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C22" s="10"/>
+      <x:c r="D22" s="10"/>
+      <x:c r="E22" s="11"/>
+      <x:c r="I22" s="6" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="J22" s="6"/>
+      <x:c r="K22" s="6"/>
+      <x:c r="L22" s="6"/>
     </x:row>
     <x:row r="23" spans="2:12">
       <x:c r="B23" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C23" s="2"/>
       <x:c r="D23" s="2"/>
       <x:c r="E23" s="2"/>
-      <x:c r="F23" s="2"/>
       <x:c r="I23" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J23" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="K23" s="2"/>
       <x:c r="L23" s="2"/>
     </x:row>
     <x:row r="24" spans="2:12" ht="32.75">
       <x:c r="B24" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E24" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I24" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J24" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="K24" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L24" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:12">
       <x:c r="B25" s="2">
         <x:v>2015111728</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D25" s="6">
+      <x:c r="C25" s="4">
         <x:v>44159.751354166663</x:v>
       </x:c>
-      <x:c r="E25" s="6" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F25" s="6">
+      <x:c r="D25" s="4" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E25" s="4">
         <x:v>44160.418020833335</x:v>
       </x:c>
       <x:c r="I25" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J25" s="2">
         <x:v>2015111728</x:v>
@@ -1258,62 +1271,62 @@
       <x:c r="K25" s="2">
         <x:v>36.700000000000003</x:v>
       </x:c>
-      <x:c r="L25" s="6">
+      <x:c r="L25" s="4">
         <x:v>44159.751354166663</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:11">
-      <x:c r="B27" s="4" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C27" s="4"/>
-      <x:c r="D27" s="4"/>
-      <x:c r="I27" s="4" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J27" s="4"/>
-      <x:c r="K27" s="4"/>
+      <x:c r="B27" s="6" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C27" s="6"/>
+      <x:c r="D27" s="6"/>
+      <x:c r="I27" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J27" s="6"/>
+      <x:c r="K27" s="6"/>
     </x:row>
     <x:row r="28" spans="2:12">
       <x:c r="B28" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I28" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J28" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="K28" s="2"/>
       <x:c r="L28" s="2"/>
     </x:row>
     <x:row r="29" spans="2:12" ht="32.75">
       <x:c r="B29" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I29" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="J29" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="K29" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="L29" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:12">
@@ -1324,125 +1337,142 @@
         <x:v>2015111730</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I30" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J30" s="2">
         <x:v>2015111728</x:v>
       </x:c>
       <x:c r="K30" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L30" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="2:11">
+      <x:c r="B32" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C32" s="5"/>
+      <x:c r="D32" s="5"/>
+      <x:c r="I32" s="5" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="J32" s="5"/>
+      <x:c r="K32" s="5"/>
+    </x:row>
+    <x:row r="33" spans="2:11">
+      <x:c r="B33" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I33" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="J33" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-    </x:row>
-    <x:row r="32" spans="2:10">
-      <x:c r="B32" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C32" s="4"/>
-      <x:c r="I32" s="7" t="s">
+      <x:c r="K33" s="2"/>
+    </x:row>
+    <x:row r="34" spans="2:11" ht="32.75">
+      <x:c r="B34" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="J32" s="8"/>
-    </x:row>
-    <x:row r="33" spans="2:10">
-      <x:c r="B33" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="I33" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="J33" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="2:10" ht="32.75">
-      <x:c r="B34" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>62</x:v>
+      <x:c r="D34" s="2" t="s">
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I34" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
       <x:c r="J34" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="2:10">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K34" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="2:11">
       <x:c r="B35" s="2">
         <x:v>2015111728</x:v>
       </x:c>
       <x:c r="C35" s="2">
         <x:v>4202</x:v>
       </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
       <x:c r="I35" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J35" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="K35" s="12">
+        <x:v>44165</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:10">
-      <x:c r="B37" s="7" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C37" s="8"/>
-      <x:c r="E37" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F37" s="8"/>
+      <x:c r="B37" s="5" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C37" s="5"/>
+      <x:c r="D37" s="5"/>
+      <x:c r="E37" s="5"/>
+      <x:c r="F37" s="5"/>
       <x:c r="I37" s="7" t="s">
-        <x:v>98</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="J37" s="8"/>
     </x:row>
     <x:row r="38" spans="2:10">
       <x:c r="B38" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C38" s="2"/>
+      <x:c r="D38" s="2"/>
       <x:c r="E38" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F38" s="2"/>
       <x:c r="I38" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J38" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="2:10" ht="32.75">
       <x:c r="B39" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E39" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I39" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J39" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:10">
@@ -1450,49 +1480,74 @@
         <x:v>2015111730</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E40" s="2">
+        <x:v>4202</x:v>
+      </x:c>
+      <x:c r="F40" s="12">
+        <x:v>44161</x:v>
+      </x:c>
+      <x:c r="I40" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="J40" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="2:10">
+      <x:c r="B42" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C42" s="6"/>
+      <x:c r="I42" s="7" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="J42" s="8"/>
+    </x:row>
+    <x:row r="43" spans="2:10">
+      <x:c r="B43" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I43" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="J43" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="E40" s="2">
-        <x:v>2015111728</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="I40" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="J40" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="2:3">
-      <x:c r="B42" s="4" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C42" s="4"/>
-    </x:row>
-    <x:row r="43" spans="2:3">
-      <x:c r="B43" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="2:3" ht="32.75">
+    </x:row>
+    <x:row r="44" spans="2:10" ht="32.75">
       <x:c r="B44" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="2:3">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="I44" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="J44" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="2:10">
       <x:c r="B45" s="2">
         <x:v>2015111728</x:v>
       </x:c>
       <x:c r="C45" s="2">
         <x:v>101</x:v>
+      </x:c>
+      <x:c r="I45" s="2">
+        <x:v>2015111728</x:v>
+      </x:c>
+      <x:c r="J45" s="2" t="s">
+        <x:v>85</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1504,19 +1559,19 @@
     <x:mergeCell ref="B11:D11"/>
     <x:mergeCell ref="I11:L11"/>
     <x:mergeCell ref="B16:F16"/>
-    <x:mergeCell ref="I16:N16"/>
     <x:mergeCell ref="B27:D27"/>
-    <x:mergeCell ref="B32:C32"/>
     <x:mergeCell ref="B42:C42"/>
-    <x:mergeCell ref="B22:F22"/>
     <x:mergeCell ref="I22:L22"/>
-    <x:mergeCell ref="B37:C37"/>
-    <x:mergeCell ref="E37:F37"/>
     <x:mergeCell ref="I27:K27"/>
-    <x:mergeCell ref="I32:J32"/>
     <x:mergeCell ref="I37:J37"/>
+    <x:mergeCell ref="B22:E22"/>
+    <x:mergeCell ref="B32:D32"/>
+    <x:mergeCell ref="I42:J42"/>
+    <x:mergeCell ref="I16:M16"/>
+    <x:mergeCell ref="B37:F37"/>
+    <x:mergeCell ref="I32:K32"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>